--- a/data/trans_camb/P2C_R1-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R1-Estudios-trans_camb.xlsx
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>31,1</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>32,58</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>32,14</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,57; 0,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 0,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,73; 39,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,71; 0,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,94; 0,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,26; 37,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,45; 0,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,63; 0,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,6; 36,26</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,92%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,27%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7316,66%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,31%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,7%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4435,57%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,48%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,06%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5273,87%</t>
         </is>
       </c>
     </row>
@@ -801,37 +801,37 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2553,14; 26825,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,17; 335,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,81; 278,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2051,26; 10831,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,31; 209,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,13; 187,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2797,33; 10403,38</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-0,22</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>10,98</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-0,04</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4,06</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,47</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 0,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 1,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,03; 15,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,58; 0,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,75; 0,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 7,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 0,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,28; 0,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,71; 9,54</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,59%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>119,65%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2274,15%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,8%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>659,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,21%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1172,56%</t>
         </is>
       </c>
     </row>
@@ -1012,42 +1012,42 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,99; 1084,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>645,41; 11435,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,37; 412,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,09; 231,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>120,87; 2165,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,75; 212,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,63; 275,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>348,25; 2786,66</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,19</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,08</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,56</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,13; 6,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,53; 1,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,76; 28,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,33; 5,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 4,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,32; 16,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,51; 4,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,51; 2,6</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,44; 18,06</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>199,07%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,95%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1058,92%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>149,25%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>135,46%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>704,03%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>172,39%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,37%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>863,57%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-31,4; 1157,61</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>191,43; 5457,23</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,68; 1145,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,17; 835,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>163,44; 3225,48</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,63; 603,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,01; 351,36</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>283,44; 2264,91</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,07</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,58</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,83</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,39; 0,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,28; 0,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,0; 19,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,25; 0,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,36; 0,82</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,65; 17,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,07; 0,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,15; 0,68</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,04; 17,01</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,17%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,19%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2776,42%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,82%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,57%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1633,05%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,67%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,28%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2023,7%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,6; 233,9</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,59; 281,85</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1289,78; 6015,86</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,94; 188,56</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,71; 154,11</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>534,77; 2959,6</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,61; 141,16</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,98; 139,22</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1084,7; 3293,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2C_R1-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R1-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 0,87</t>
+          <t>-0,55; 0,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 0,97</t>
+          <t>-0,53; 1,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,73; 39,25</t>
+          <t>24,17; 39,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 0,96</t>
+          <t>-0,8; 0,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 0,82</t>
+          <t>-0,9; 0,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>28,26; 37,18</t>
+          <t>28,47; 36,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 0,67</t>
+          <t>-0,44; 0,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 0,59</t>
+          <t>-0,6; 0,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>28,6; 36,26</t>
+          <t>28,75; 36,18</t>
         </is>
       </c>
     </row>
@@ -801,37 +801,37 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2553,14; 26825,3</t>
+          <t>2054,31; 24969,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-66,17; 335,33</t>
+          <t>-70,73; 287,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-84,81; 278,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2051,26; 10831,31</t>
+          <t>2102,67; 13959,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-55,31; 209,27</t>
+          <t>-53,85; 266,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-66,13; 187,69</t>
+          <t>-68,45; 215,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2797,33; 10403,38</t>
+          <t>2662,07; 11741,35</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 0,25</t>
+          <t>-1,2; 0,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 1,43</t>
+          <t>-0,33; 1,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,03; 15,18</t>
+          <t>7,74; 14,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 0,98</t>
+          <t>-0,61; 0,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 0,57</t>
+          <t>-0,81; 0,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,48; 7,47</t>
+          <t>0,96; 7,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 0,49</t>
+          <t>-0,49; 0,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 0,79</t>
+          <t>-0,35; 0,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,71; 9,54</t>
+          <t>2,44; 9,37</t>
         </is>
       </c>
     </row>
@@ -1012,42 +1012,42 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-50,99; 1084,68</t>
+          <t>-52,9; 1389,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>645,41; 11435,93</t>
+          <t>534,71; 10701,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-64,37; 412,97</t>
+          <t>-70,69; 388,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-76,09; 231,8</t>
+          <t>-77,61; 337,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>120,87; 2165,78</t>
+          <t>93,26; 2114,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-60,75; 212,2</t>
+          <t>-57,53; 168,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-37,63; 275,46</t>
+          <t>-41,74; 253,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>348,25; 2786,66</t>
+          <t>387,92; 2741,66</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,13; 6,27</t>
+          <t>0,15; 6,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 1,96</t>
+          <t>-1,81; 1,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,76; 28,29</t>
+          <t>5,09; 26,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 5,81</t>
+          <t>-0,35; 5,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 4,52</t>
+          <t>-0,29; 4,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,32; 16,7</t>
+          <t>5,5; 15,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,5</t>
+          <t>0,56; 4,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 2,6</t>
+          <t>-0,53; 2,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,44; 18,06</t>
+          <t>7,38; 19,06</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-31,4; 1157,61</t>
+          <t>-20,31; 1447,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1233,37 +1233,37 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>191,43; 5457,23</t>
+          <t>177,55; 4968,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-37,68; 1145,56</t>
+          <t>-47,84; 1175,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,17; 835,14</t>
+          <t>-26,49; 887,98</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>163,44; 3225,48</t>
+          <t>165,88; 3386,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,63; 603,06</t>
+          <t>17,31; 636,19</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-35,01; 351,36</t>
+          <t>-34,58; 356,78</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>283,44; 2264,91</t>
+          <t>355,73; 2284,36</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 0,77</t>
+          <t>-0,46; 0,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 0,96</t>
+          <t>-0,22; 0,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,0; 19,81</t>
+          <t>12,81; 19,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 0,99</t>
+          <t>-0,22; 1,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 0,82</t>
+          <t>-0,41; 0,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,65; 17,09</t>
+          <t>6,36; 17,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 0,72</t>
+          <t>-0,12; 0,7</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 0,68</t>
+          <t>-0,14; 0,67</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,04; 17,01</t>
+          <t>7,97; 16,93</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-46,6; 233,9</t>
+          <t>-57,95; 227,96</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-40,59; 281,85</t>
+          <t>-37,29; 287,52</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1289,78; 6015,86</t>
+          <t>1366,95; 5871,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-23,94; 188,56</t>
+          <t>-26,61; 199,71</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-35,71; 154,11</t>
+          <t>-39,14; 153,3</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>534,77; 2959,6</t>
+          <t>719,46; 2913,77</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-11,61; 141,16</t>
+          <t>-13,48; 147,22</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-17,98; 139,22</t>
+          <t>-16,71; 131,56</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1084,7; 3293,46</t>
+          <t>1087,53; 3176,01</t>
         </is>
       </c>
     </row>
